--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="80">
   <si>
     <t>AN</t>
   </si>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S151"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -3338,6 +3338,4474 @@
         <v>1208.3333333333333</v>
       </c>
     </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>282</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>14500</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57">
+        <v>175</v>
+      </c>
+      <c r="M57">
+        <v>290</v>
+      </c>
+      <c r="N57">
+        <v>526.8</v>
+      </c>
+      <c r="O57">
+        <v>175</v>
+      </c>
+      <c r="P57">
+        <v>290</v>
+      </c>
+      <c r="Q57">
+        <v>1078.2</v>
+      </c>
+      <c r="R57">
+        <v>774.93</v>
+      </c>
+      <c r="S57">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>283</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>14500</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>290</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>284</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>14500</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>175</v>
+      </c>
+      <c r="M59">
+        <v>290</v>
+      </c>
+      <c r="N59">
+        <v>526.8</v>
+      </c>
+      <c r="O59">
+        <v>175</v>
+      </c>
+      <c r="P59">
+        <v>290</v>
+      </c>
+      <c r="Q59">
+        <v>1078.2</v>
+      </c>
+      <c r="R59">
+        <v>774.93</v>
+      </c>
+      <c r="S59">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>285</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>14500</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>290</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>286</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>14500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61">
+        <v>175</v>
+      </c>
+      <c r="M61">
+        <v>290</v>
+      </c>
+      <c r="N61">
+        <v>526.8</v>
+      </c>
+      <c r="O61">
+        <v>175</v>
+      </c>
+      <c r="P61">
+        <v>290</v>
+      </c>
+      <c r="Q61">
+        <v>1078.2</v>
+      </c>
+      <c r="R61">
+        <v>774.93</v>
+      </c>
+      <c r="S61">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>287</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>14500</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>290</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>288</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>14500</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63">
+        <v>175</v>
+      </c>
+      <c r="M63">
+        <v>290</v>
+      </c>
+      <c r="N63">
+        <v>526.8</v>
+      </c>
+      <c r="O63">
+        <v>175</v>
+      </c>
+      <c r="P63">
+        <v>290</v>
+      </c>
+      <c r="Q63">
+        <v>1078.2</v>
+      </c>
+      <c r="R63">
+        <v>774.93</v>
+      </c>
+      <c r="S63">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>14500</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>290</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>290</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>14500</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65">
+        <v>175</v>
+      </c>
+      <c r="M65">
+        <v>290</v>
+      </c>
+      <c r="N65">
+        <v>526.8</v>
+      </c>
+      <c r="O65">
+        <v>175</v>
+      </c>
+      <c r="P65">
+        <v>290</v>
+      </c>
+      <c r="Q65">
+        <v>1078.2</v>
+      </c>
+      <c r="R65">
+        <v>774.93</v>
+      </c>
+      <c r="S65">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>291</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>14500</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>290</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>292</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>14500</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67">
+        <v>175</v>
+      </c>
+      <c r="M67">
+        <v>290</v>
+      </c>
+      <c r="N67">
+        <v>526.8</v>
+      </c>
+      <c r="O67">
+        <v>175</v>
+      </c>
+      <c r="P67">
+        <v>290</v>
+      </c>
+      <c r="Q67">
+        <v>1078.2</v>
+      </c>
+      <c r="R67">
+        <v>774.93</v>
+      </c>
+      <c r="S67">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>293</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>14500</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>290</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>294</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>14500</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69">
+        <v>175</v>
+      </c>
+      <c r="M69">
+        <v>290</v>
+      </c>
+      <c r="N69">
+        <v>526.8</v>
+      </c>
+      <c r="O69">
+        <v>175</v>
+      </c>
+      <c r="P69">
+        <v>290</v>
+      </c>
+      <c r="Q69">
+        <v>1078.2</v>
+      </c>
+      <c r="R69">
+        <v>774.93</v>
+      </c>
+      <c r="S69">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>14500</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>290</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>296</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>14500</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71">
+        <v>175</v>
+      </c>
+      <c r="M71">
+        <v>290</v>
+      </c>
+      <c r="N71">
+        <v>526.8</v>
+      </c>
+      <c r="O71">
+        <v>175</v>
+      </c>
+      <c r="P71">
+        <v>290</v>
+      </c>
+      <c r="Q71">
+        <v>1078.2</v>
+      </c>
+      <c r="R71">
+        <v>774.93</v>
+      </c>
+      <c r="S71">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>297</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>14500</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>290</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>298</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>14500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73">
+        <v>175</v>
+      </c>
+      <c r="M73">
+        <v>290</v>
+      </c>
+      <c r="N73">
+        <v>526.8</v>
+      </c>
+      <c r="O73">
+        <v>175</v>
+      </c>
+      <c r="P73">
+        <v>290</v>
+      </c>
+      <c r="Q73">
+        <v>1078.2</v>
+      </c>
+      <c r="R73">
+        <v>774.93</v>
+      </c>
+      <c r="S73">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>14500</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>290</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>300</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>14500</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75">
+        <v>175</v>
+      </c>
+      <c r="M75">
+        <v>290</v>
+      </c>
+      <c r="N75">
+        <v>526.8</v>
+      </c>
+      <c r="O75">
+        <v>175</v>
+      </c>
+      <c r="P75">
+        <v>290</v>
+      </c>
+      <c r="Q75">
+        <v>1078.2</v>
+      </c>
+      <c r="R75">
+        <v>774.93</v>
+      </c>
+      <c r="S75">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>301</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>14500</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>290</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>302</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>14500</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77">
+        <v>175</v>
+      </c>
+      <c r="M77">
+        <v>290</v>
+      </c>
+      <c r="N77">
+        <v>526.8</v>
+      </c>
+      <c r="O77">
+        <v>175</v>
+      </c>
+      <c r="P77">
+        <v>290</v>
+      </c>
+      <c r="Q77">
+        <v>1078.2</v>
+      </c>
+      <c r="R77">
+        <v>774.93</v>
+      </c>
+      <c r="S77">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>303</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>14500</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>290</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>304</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>14500</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79">
+        <v>175</v>
+      </c>
+      <c r="M79">
+        <v>290</v>
+      </c>
+      <c r="N79">
+        <v>526.8</v>
+      </c>
+      <c r="O79">
+        <v>175</v>
+      </c>
+      <c r="P79">
+        <v>290</v>
+      </c>
+      <c r="Q79">
+        <v>1078.2</v>
+      </c>
+      <c r="R79">
+        <v>774.93</v>
+      </c>
+      <c r="S79">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>305</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>14500</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>290</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>306</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>14500</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81">
+        <v>175</v>
+      </c>
+      <c r="M81">
+        <v>290</v>
+      </c>
+      <c r="N81">
+        <v>526.8</v>
+      </c>
+      <c r="O81">
+        <v>175</v>
+      </c>
+      <c r="P81">
+        <v>290</v>
+      </c>
+      <c r="Q81">
+        <v>1078.2</v>
+      </c>
+      <c r="R81">
+        <v>774.93</v>
+      </c>
+      <c r="S81">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>307</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>14500</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>290</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>308</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>14500</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83">
+        <v>175</v>
+      </c>
+      <c r="M83">
+        <v>290</v>
+      </c>
+      <c r="N83">
+        <v>526.8</v>
+      </c>
+      <c r="O83">
+        <v>175</v>
+      </c>
+      <c r="P83">
+        <v>290</v>
+      </c>
+      <c r="Q83">
+        <v>1078.2</v>
+      </c>
+      <c r="R83">
+        <v>774.93</v>
+      </c>
+      <c r="S83">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>309</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>14500</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>290</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>310</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>14500</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85">
+        <v>175</v>
+      </c>
+      <c r="M85">
+        <v>290</v>
+      </c>
+      <c r="N85">
+        <v>526.8</v>
+      </c>
+      <c r="O85">
+        <v>175</v>
+      </c>
+      <c r="P85">
+        <v>290</v>
+      </c>
+      <c r="Q85">
+        <v>1078.2</v>
+      </c>
+      <c r="R85">
+        <v>774.93</v>
+      </c>
+      <c r="S85">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>311</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>14500</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>290</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>312</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>14500</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87">
+        <v>175</v>
+      </c>
+      <c r="M87">
+        <v>290</v>
+      </c>
+      <c r="N87">
+        <v>526.8</v>
+      </c>
+      <c r="O87">
+        <v>175</v>
+      </c>
+      <c r="P87">
+        <v>290</v>
+      </c>
+      <c r="Q87">
+        <v>1078.2</v>
+      </c>
+      <c r="R87">
+        <v>774.93</v>
+      </c>
+      <c r="S87">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>313</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>14500</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>290</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>314</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>14500</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89">
+        <v>175</v>
+      </c>
+      <c r="M89">
+        <v>290</v>
+      </c>
+      <c r="N89">
+        <v>526.8</v>
+      </c>
+      <c r="O89">
+        <v>175</v>
+      </c>
+      <c r="P89">
+        <v>290</v>
+      </c>
+      <c r="Q89">
+        <v>1078.2</v>
+      </c>
+      <c r="R89">
+        <v>774.93</v>
+      </c>
+      <c r="S89">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>315</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>14500</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>290</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>316</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>14500</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91">
+        <v>175</v>
+      </c>
+      <c r="M91">
+        <v>290</v>
+      </c>
+      <c r="N91">
+        <v>526.8</v>
+      </c>
+      <c r="O91">
+        <v>175</v>
+      </c>
+      <c r="P91">
+        <v>290</v>
+      </c>
+      <c r="Q91">
+        <v>1078.2</v>
+      </c>
+      <c r="R91">
+        <v>774.93</v>
+      </c>
+      <c r="S91">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>317</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>14500</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>290</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>318</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>14500</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93">
+        <v>175</v>
+      </c>
+      <c r="M93">
+        <v>290</v>
+      </c>
+      <c r="N93">
+        <v>526.8</v>
+      </c>
+      <c r="O93">
+        <v>175</v>
+      </c>
+      <c r="P93">
+        <v>290</v>
+      </c>
+      <c r="Q93">
+        <v>1078.2</v>
+      </c>
+      <c r="R93">
+        <v>774.93</v>
+      </c>
+      <c r="S93">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>319</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>14500</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>290</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>320</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>14500</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95">
+        <v>175</v>
+      </c>
+      <c r="M95">
+        <v>290</v>
+      </c>
+      <c r="N95">
+        <v>526.8</v>
+      </c>
+      <c r="O95">
+        <v>175</v>
+      </c>
+      <c r="P95">
+        <v>290</v>
+      </c>
+      <c r="Q95">
+        <v>1078.2</v>
+      </c>
+      <c r="R95">
+        <v>774.93</v>
+      </c>
+      <c r="S95">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>321</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>14500</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>290</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>322</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>14500</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97">
+        <v>175</v>
+      </c>
+      <c r="M97">
+        <v>290</v>
+      </c>
+      <c r="N97">
+        <v>526.8</v>
+      </c>
+      <c r="O97">
+        <v>175</v>
+      </c>
+      <c r="P97">
+        <v>290</v>
+      </c>
+      <c r="Q97">
+        <v>1078.2</v>
+      </c>
+      <c r="R97">
+        <v>774.93</v>
+      </c>
+      <c r="S97">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>323</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>14500</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>290</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>324</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>14500</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99">
+        <v>175</v>
+      </c>
+      <c r="M99">
+        <v>290</v>
+      </c>
+      <c r="N99">
+        <v>526.8</v>
+      </c>
+      <c r="O99">
+        <v>175</v>
+      </c>
+      <c r="P99">
+        <v>290</v>
+      </c>
+      <c r="Q99">
+        <v>1078.2</v>
+      </c>
+      <c r="R99">
+        <v>774.93</v>
+      </c>
+      <c r="S99">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>325</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>14500</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>290</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>326</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>14500</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101">
+        <v>175</v>
+      </c>
+      <c r="M101">
+        <v>290</v>
+      </c>
+      <c r="N101">
+        <v>526.8</v>
+      </c>
+      <c r="O101">
+        <v>175</v>
+      </c>
+      <c r="P101">
+        <v>290</v>
+      </c>
+      <c r="Q101">
+        <v>1078.2</v>
+      </c>
+      <c r="R101">
+        <v>774.93</v>
+      </c>
+      <c r="S101">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>327</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>14500</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>290</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>328</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>14500</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>290</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>329</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>14500</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104">
+        <v>175</v>
+      </c>
+      <c r="M104">
+        <v>290</v>
+      </c>
+      <c r="N104">
+        <v>526.8</v>
+      </c>
+      <c r="O104">
+        <v>175</v>
+      </c>
+      <c r="P104">
+        <v>290</v>
+      </c>
+      <c r="Q104">
+        <v>1078.2</v>
+      </c>
+      <c r="R104">
+        <v>774.93</v>
+      </c>
+      <c r="S104">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>330</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>14500</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>290</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>331</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>14500</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>290</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>332</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>14500</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107">
+        <v>175</v>
+      </c>
+      <c r="M107">
+        <v>290</v>
+      </c>
+      <c r="N107">
+        <v>526.8</v>
+      </c>
+      <c r="O107">
+        <v>175</v>
+      </c>
+      <c r="P107">
+        <v>290</v>
+      </c>
+      <c r="Q107">
+        <v>1078.2</v>
+      </c>
+      <c r="R107">
+        <v>774.93</v>
+      </c>
+      <c r="S107">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>333</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>14500</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>290</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>334</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>14500</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>290</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>335</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>14500</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110">
+        <v>175</v>
+      </c>
+      <c r="M110">
+        <v>290</v>
+      </c>
+      <c r="N110">
+        <v>526.8</v>
+      </c>
+      <c r="O110">
+        <v>175</v>
+      </c>
+      <c r="P110">
+        <v>290</v>
+      </c>
+      <c r="Q110">
+        <v>1078.2</v>
+      </c>
+      <c r="R110">
+        <v>774.93</v>
+      </c>
+      <c r="S110">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>336</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>14500</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>290</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>337</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>14500</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>290</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>338</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>14500</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113">
+        <v>175</v>
+      </c>
+      <c r="M113">
+        <v>290</v>
+      </c>
+      <c r="N113">
+        <v>526.8</v>
+      </c>
+      <c r="O113">
+        <v>175</v>
+      </c>
+      <c r="P113">
+        <v>290</v>
+      </c>
+      <c r="Q113">
+        <v>1078.2</v>
+      </c>
+      <c r="R113">
+        <v>774.93</v>
+      </c>
+      <c r="S113">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>339</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>14500</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>290</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>340</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>14500</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>290</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>341</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>14500</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" t="s">
+        <v>24</v>
+      </c>
+      <c r="L116">
+        <v>175</v>
+      </c>
+      <c r="M116">
+        <v>290</v>
+      </c>
+      <c r="N116">
+        <v>526.8</v>
+      </c>
+      <c r="O116">
+        <v>175</v>
+      </c>
+      <c r="P116">
+        <v>290</v>
+      </c>
+      <c r="Q116">
+        <v>1078.2</v>
+      </c>
+      <c r="R116">
+        <v>774.93</v>
+      </c>
+      <c r="S116">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>342</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>14500</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>290</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>343</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>14500</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>290</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>344</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>14500</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119">
+        <v>175</v>
+      </c>
+      <c r="M119">
+        <v>290</v>
+      </c>
+      <c r="N119">
+        <v>526.8</v>
+      </c>
+      <c r="O119">
+        <v>175</v>
+      </c>
+      <c r="P119">
+        <v>290</v>
+      </c>
+      <c r="Q119">
+        <v>1078.2</v>
+      </c>
+      <c r="R119">
+        <v>774.93</v>
+      </c>
+      <c r="S119">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>345</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>14500</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>290</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>346</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>14500</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>290</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>347</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>14500</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122">
+        <v>175</v>
+      </c>
+      <c r="M122">
+        <v>290</v>
+      </c>
+      <c r="N122">
+        <v>526.8</v>
+      </c>
+      <c r="O122">
+        <v>175</v>
+      </c>
+      <c r="P122">
+        <v>290</v>
+      </c>
+      <c r="Q122">
+        <v>1078.2</v>
+      </c>
+      <c r="R122">
+        <v>774.93</v>
+      </c>
+      <c r="S122">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>348</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>14500</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>290</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>349</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>14500</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>290</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>350</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>14500</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125">
+        <v>175</v>
+      </c>
+      <c r="M125">
+        <v>290</v>
+      </c>
+      <c r="N125">
+        <v>526.8</v>
+      </c>
+      <c r="O125">
+        <v>175</v>
+      </c>
+      <c r="P125">
+        <v>290</v>
+      </c>
+      <c r="Q125">
+        <v>1078.2</v>
+      </c>
+      <c r="R125">
+        <v>774.93</v>
+      </c>
+      <c r="S125">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>351</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>14500</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>290</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>352</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>14500</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>290</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>353</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>14500</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" t="s">
+        <v>24</v>
+      </c>
+      <c r="L128">
+        <v>175</v>
+      </c>
+      <c r="M128">
+        <v>290</v>
+      </c>
+      <c r="N128">
+        <v>526.8</v>
+      </c>
+      <c r="O128">
+        <v>175</v>
+      </c>
+      <c r="P128">
+        <v>290</v>
+      </c>
+      <c r="Q128">
+        <v>1078.2</v>
+      </c>
+      <c r="R128">
+        <v>774.93</v>
+      </c>
+      <c r="S128">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>354</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>14500</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>290</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>14500</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>290</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>356</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>14500</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131">
+        <v>175</v>
+      </c>
+      <c r="M131">
+        <v>290</v>
+      </c>
+      <c r="N131">
+        <v>526.8</v>
+      </c>
+      <c r="O131">
+        <v>175</v>
+      </c>
+      <c r="P131">
+        <v>290</v>
+      </c>
+      <c r="Q131">
+        <v>1078.2</v>
+      </c>
+      <c r="R131">
+        <v>774.93</v>
+      </c>
+      <c r="S131">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>357</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>14500</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>290</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>358</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>14500</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>290</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>359</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>14500</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" t="s">
+        <v>24</v>
+      </c>
+      <c r="L134">
+        <v>175</v>
+      </c>
+      <c r="M134">
+        <v>290</v>
+      </c>
+      <c r="N134">
+        <v>526.8</v>
+      </c>
+      <c r="O134">
+        <v>175</v>
+      </c>
+      <c r="P134">
+        <v>290</v>
+      </c>
+      <c r="Q134">
+        <v>1078.2</v>
+      </c>
+      <c r="R134">
+        <v>774.93</v>
+      </c>
+      <c r="S134">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>360</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>14500</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>290</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>361</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>14500</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>290</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>362</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>14500</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>21</v>
+      </c>
+      <c r="I137" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" t="s">
+        <v>24</v>
+      </c>
+      <c r="L137">
+        <v>175</v>
+      </c>
+      <c r="M137">
+        <v>290</v>
+      </c>
+      <c r="N137">
+        <v>526.8</v>
+      </c>
+      <c r="O137">
+        <v>175</v>
+      </c>
+      <c r="P137">
+        <v>290</v>
+      </c>
+      <c r="Q137">
+        <v>1078.2</v>
+      </c>
+      <c r="R137">
+        <v>774.93</v>
+      </c>
+      <c r="S137">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>363</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>14500</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>290</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>364</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>14500</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>290</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>365</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>14500</v>
+      </c>
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140">
+        <v>175</v>
+      </c>
+      <c r="M140">
+        <v>290</v>
+      </c>
+      <c r="N140">
+        <v>526.8</v>
+      </c>
+      <c r="O140">
+        <v>175</v>
+      </c>
+      <c r="P140">
+        <v>290</v>
+      </c>
+      <c r="Q140">
+        <v>1078.2</v>
+      </c>
+      <c r="R140">
+        <v>774.93</v>
+      </c>
+      <c r="S140">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>366</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>14500</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>290</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>367</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>14500</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>290</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>368</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>14500</v>
+      </c>
+      <c r="F143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>21</v>
+      </c>
+      <c r="I143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143">
+        <v>175</v>
+      </c>
+      <c r="M143">
+        <v>290</v>
+      </c>
+      <c r="N143">
+        <v>526.8</v>
+      </c>
+      <c r="O143">
+        <v>175</v>
+      </c>
+      <c r="P143">
+        <v>290</v>
+      </c>
+      <c r="Q143">
+        <v>1078.2</v>
+      </c>
+      <c r="R143">
+        <v>774.93</v>
+      </c>
+      <c r="S143">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>369</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>14500</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>290</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>370</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>14500</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>290</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>371</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>14500</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" t="s">
+        <v>23</v>
+      </c>
+      <c r="K146" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146">
+        <v>175</v>
+      </c>
+      <c r="M146">
+        <v>290</v>
+      </c>
+      <c r="N146">
+        <v>526.8</v>
+      </c>
+      <c r="O146">
+        <v>175</v>
+      </c>
+      <c r="P146">
+        <v>290</v>
+      </c>
+      <c r="Q146">
+        <v>1078.2</v>
+      </c>
+      <c r="R146">
+        <v>774.93</v>
+      </c>
+      <c r="S146">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>372</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>14500</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>290</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>373</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>14500</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>290</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>374</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>14500</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" t="s">
+        <v>21</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" t="s">
+        <v>23</v>
+      </c>
+      <c r="K149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149">
+        <v>175</v>
+      </c>
+      <c r="M149">
+        <v>290</v>
+      </c>
+      <c r="N149">
+        <v>526.8</v>
+      </c>
+      <c r="O149">
+        <v>175</v>
+      </c>
+      <c r="P149">
+        <v>290</v>
+      </c>
+      <c r="Q149">
+        <v>1078.2</v>
+      </c>
+      <c r="R149">
+        <v>774.93</v>
+      </c>
+      <c r="S149">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>375</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>14500</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>290</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>376</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>14500</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>290</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -3346,7 +7814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F142"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -4831,6 +9299,958 @@
         <v>500</v>
       </c>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -4839,7 +10259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F145"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -6387,6 +11807,958 @@
         <v>500</v>
       </c>
     </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>51</v>
+      </c>
+      <c r="F113">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F117">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F119">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>51</v>
+      </c>
+      <c r="F129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>51</v>
+      </c>
+      <c r="F131">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F133">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>51</v>
+      </c>
+      <c r="F135">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" t="s">
+        <v>51</v>
+      </c>
+      <c r="F137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>51</v>
+      </c>
+      <c r="F139">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>51</v>
+      </c>
+      <c r="F143">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -6395,7 +12767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F165"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -7082,6 +13454,1406 @@
         <v>NaN</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>120</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>122</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>124</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>79</v>
+      </c>
+      <c r="F121">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>79</v>
+      </c>
+      <c r="F125">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>79</v>
+      </c>
+      <c r="F127">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>79</v>
+      </c>
+      <c r="F137">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F139">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>79</v>
+      </c>
+      <c r="F143">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>139</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>79</v>
+      </c>
+      <c r="F145">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>141</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>142</v>
+      </c>
+      <c r="C150" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>143</v>
+      </c>
+      <c r="C152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>47</v>
+      </c>
+      <c r="F152">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>79</v>
+      </c>
+      <c r="F155">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>145</v>
+      </c>
+      <c r="C156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>79</v>
+      </c>
+      <c r="F157">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>146</v>
+      </c>
+      <c r="C158" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>79</v>
+      </c>
+      <c r="F159">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>79</v>
+      </c>
+      <c r="F161">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>148</v>
+      </c>
+      <c r="C162" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>79</v>
+      </c>
+      <c r="F163">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>149</v>
+      </c>
+      <c r="C164" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>79</v>
+      </c>
+      <c r="F165">
+        <v>NaN</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="80">
   <si>
     <t>AN</t>
   </si>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S151"/>
+  <dimension ref="A1:S154"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -7806,6 +7806,144 @@
         <v>1208.3333333333333</v>
       </c>
     </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>377</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152">
+        <v>14500</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" t="s">
+        <v>21</v>
+      </c>
+      <c r="I152" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" t="s">
+        <v>23</v>
+      </c>
+      <c r="K152" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152">
+        <v>175</v>
+      </c>
+      <c r="M152">
+        <v>290</v>
+      </c>
+      <c r="N152">
+        <v>526.8</v>
+      </c>
+      <c r="O152">
+        <v>175</v>
+      </c>
+      <c r="P152">
+        <v>290</v>
+      </c>
+      <c r="Q152">
+        <v>1078.2</v>
+      </c>
+      <c r="R152">
+        <v>774.93</v>
+      </c>
+      <c r="S152">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>378</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>14500</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>290</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>379</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>14500</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>290</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -7814,7 +7952,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F144"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -10251,6 +10389,40 @@
         <v>500</v>
       </c>
     </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -10259,7 +10431,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F147"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -12759,6 +12931,40 @@
         <v>500</v>
       </c>
     </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -12767,7 +12973,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F169"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -14854,6 +15060,56 @@
         <v>NaN</v>
       </c>
     </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>150</v>
+      </c>
+      <c r="C166" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>151</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>79</v>
+      </c>
+      <c r="F169">
+        <v>NaN</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="143">
   <si>
     <t>AN</t>
   </si>
@@ -196,6 +196,39 @@
     <t>[150]</t>
   </si>
   <si>
+    <t>March 10, 2017</t>
+  </si>
+  <si>
+    <t>March 23, 2017</t>
+  </si>
+  <si>
+    <t>["sdfg"]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>["hj"]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>March 1, 2017</t>
+  </si>
+  <si>
+    <t>March 30, 2017</t>
+  </si>
+  <si>
+    <t>["deductibles_name"]</t>
+  </si>
+  <si>
+    <t>[500]</t>
+  </si>
+  <si>
+    <t>["allowance_name"]</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -256,6 +289,12 @@
     <t>3wr</t>
   </si>
   <si>
+    <t>["food","500"]</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>Water Company</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
   </si>
   <si>
     <t>eee</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -781,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S43"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1608,6 +1650,1307 @@
         <v>1208.3333333333333</v>
       </c>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>23000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <v>175</v>
+      </c>
+      <c r="M16">
+        <v>290</v>
+      </c>
+      <c r="N16">
+        <v>526.8</v>
+      </c>
+      <c r="O16">
+        <v>175</v>
+      </c>
+      <c r="P16">
+        <v>290</v>
+      </c>
+      <c r="Q16">
+        <v>1078.2</v>
+      </c>
+      <c r="R16">
+        <v>774.93</v>
+      </c>
+      <c r="S16">
+        <v>12731.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>23000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>175</v>
+      </c>
+      <c r="M17">
+        <v>290</v>
+      </c>
+      <c r="N17">
+        <v>526.8</v>
+      </c>
+      <c r="O17">
+        <v>175</v>
+      </c>
+      <c r="P17">
+        <v>290</v>
+      </c>
+      <c r="Q17">
+        <v>1078.2</v>
+      </c>
+      <c r="R17">
+        <v>774.93</v>
+      </c>
+      <c r="S17">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>23000</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>290</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>23000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>290</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>23000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>175</v>
+      </c>
+      <c r="M20">
+        <v>290</v>
+      </c>
+      <c r="N20">
+        <v>526.8</v>
+      </c>
+      <c r="O20">
+        <v>175</v>
+      </c>
+      <c r="P20">
+        <v>290</v>
+      </c>
+      <c r="Q20">
+        <v>1078.2</v>
+      </c>
+      <c r="R20">
+        <v>774.93</v>
+      </c>
+      <c r="S20">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>23000</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>290</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>23000</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>290</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>23000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>175</v>
+      </c>
+      <c r="M23">
+        <v>290</v>
+      </c>
+      <c r="N23">
+        <v>526.8</v>
+      </c>
+      <c r="O23">
+        <v>175</v>
+      </c>
+      <c r="P23">
+        <v>290</v>
+      </c>
+      <c r="Q23">
+        <v>1078.2</v>
+      </c>
+      <c r="R23">
+        <v>774.93</v>
+      </c>
+      <c r="S23">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>23000</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>290</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>23000</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>290</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>23000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>175</v>
+      </c>
+      <c r="M26">
+        <v>290</v>
+      </c>
+      <c r="N26">
+        <v>526.8</v>
+      </c>
+      <c r="O26">
+        <v>175</v>
+      </c>
+      <c r="P26">
+        <v>290</v>
+      </c>
+      <c r="Q26">
+        <v>1078.2</v>
+      </c>
+      <c r="R26">
+        <v>774.93</v>
+      </c>
+      <c r="S26">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>23000</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>290</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>23000</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>290</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>23000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>175</v>
+      </c>
+      <c r="M29">
+        <v>290</v>
+      </c>
+      <c r="N29">
+        <v>526.8</v>
+      </c>
+      <c r="O29">
+        <v>175</v>
+      </c>
+      <c r="P29">
+        <v>290</v>
+      </c>
+      <c r="Q29">
+        <v>1078.2</v>
+      </c>
+      <c r="R29">
+        <v>774.93</v>
+      </c>
+      <c r="S29">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>23000</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>290</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>23000</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>290</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>23000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>175</v>
+      </c>
+      <c r="M32">
+        <v>290</v>
+      </c>
+      <c r="N32">
+        <v>526.8</v>
+      </c>
+      <c r="O32">
+        <v>175</v>
+      </c>
+      <c r="P32">
+        <v>290</v>
+      </c>
+      <c r="Q32">
+        <v>1078.2</v>
+      </c>
+      <c r="R32">
+        <v>774.93</v>
+      </c>
+      <c r="S32">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>23000</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>290</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>23000</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>290</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>23000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>175</v>
+      </c>
+      <c r="M35">
+        <v>290</v>
+      </c>
+      <c r="N35">
+        <v>526.8</v>
+      </c>
+      <c r="O35">
+        <v>175</v>
+      </c>
+      <c r="P35">
+        <v>290</v>
+      </c>
+      <c r="Q35">
+        <v>1078.2</v>
+      </c>
+      <c r="R35">
+        <v>774.93</v>
+      </c>
+      <c r="S35">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>23000</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>290</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>23000</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>290</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>23000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38">
+        <v>175</v>
+      </c>
+      <c r="M38">
+        <v>290</v>
+      </c>
+      <c r="N38">
+        <v>526.8</v>
+      </c>
+      <c r="O38">
+        <v>175</v>
+      </c>
+      <c r="P38">
+        <v>290</v>
+      </c>
+      <c r="Q38">
+        <v>1078.2</v>
+      </c>
+      <c r="R38">
+        <v>774.93</v>
+      </c>
+      <c r="S38">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>23000</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>290</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>23000</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>290</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>23000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41">
+        <v>175</v>
+      </c>
+      <c r="M41">
+        <v>290</v>
+      </c>
+      <c r="N41">
+        <v>526.8</v>
+      </c>
+      <c r="O41">
+        <v>175</v>
+      </c>
+      <c r="P41">
+        <v>290</v>
+      </c>
+      <c r="Q41">
+        <v>1078.2</v>
+      </c>
+      <c r="R41">
+        <v>774.93</v>
+      </c>
+      <c r="S41">
+        <v>13233.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>23000</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>290</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>23000</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>290</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1208.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1616,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F28"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1638,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1652,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,16 +3012,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,16 +3029,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,16 +3046,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,13 +3063,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -1740,13 +3083,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1760,13 +3103,13 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>852</v>
@@ -1780,13 +3123,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>34</v>
@@ -1800,16 +3143,322 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +3469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F29"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1842,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1856,16 +3505,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,16 +3522,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,16 +3539,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,16 +3559,16 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,16 +3579,16 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,19 +3596,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,19 +3616,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,16 +3639,16 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2016,10 +3665,10 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,19 +3676,325 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="F11" t="s">
-        <v>103</v>
+      <c r="F12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +4005,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F62"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -2072,10 +4027,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2086,13 +4041,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -2100,7 +4055,7 @@
     </row>
     <row r="3" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>13</v>
@@ -2108,7 +4063,7 @@
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -2119,13 +4074,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2133,7 +4088,7 @@
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2141,7 +4096,7 @@
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2149,7 +4104,7 @@
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2157,7 +4112,7 @@
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>NaN</v>
@@ -2165,7 +4120,7 @@
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>NaN</v>
@@ -2176,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>15.5</v>
@@ -2193,13 +4148,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>111.11</v>
@@ -2207,7 +4162,7 @@
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F13">
         <v>222.22</v>
@@ -2215,7 +4170,7 @@
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F14">
         <v>333.33</v>
@@ -2223,7 +4178,7 @@
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F15">
         <v>NaN</v>
@@ -2234,13 +4189,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
         <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>105</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2251,13 +4206,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -2265,7 +4220,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2273,7 +4228,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2287,13 +4242,13 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -2304,16 +4259,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>789</v>
@@ -2321,7 +4276,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F22">
         <v>456</v>
@@ -2329,7 +4284,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F23">
         <v>789</v>
@@ -2346,10 +4301,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F24">
         <v>111</v>
@@ -2357,7 +4312,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F25">
         <v>222</v>
@@ -2365,10 +4320,460 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F26">
         <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="91">
   <si>
     <t>AN</t>
   </si>
@@ -70,10 +70,10 @@
     <t>Net</t>
   </si>
   <si>
-    <t>Edward Chua</t>
+    <t>edrichhans</t>
   </si>
   <si>
-    <t>edrichhans</t>
+    <t>Edward Chua</t>
   </si>
   <si>
     <t>March 23, 2017</t>
@@ -665,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S23"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -740,84 +740,120 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>451</v>
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>14500</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>526.8</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="P2">
         <v>290</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1078.2</v>
+      </c>
+      <c r="R2">
+        <v>774.93</v>
       </c>
       <c r="S2">
-        <v>1208.3333333333333</v>
+        <v>12503.27</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>452</v>
+        <v>454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>14500</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>526.8</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="P3">
         <v>290</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1078.2</v>
+      </c>
+      <c r="R3">
+        <v>774.93</v>
       </c>
       <c r="S3">
-        <v>1208.3333333333333</v>
+        <v>12503.27</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -825,13 +861,13 @@
         <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>14500</v>
@@ -884,13 +920,13 @@
         <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>14500</v>
@@ -943,13 +979,13 @@
         <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>14500</v>
@@ -1002,13 +1038,13 @@
         <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>14500</v>
@@ -1061,13 +1097,13 @@
         <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>14500</v>
@@ -1120,13 +1156,13 @@
         <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>14500</v>
@@ -1179,13 +1215,13 @@
         <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>14500</v>
@@ -1238,13 +1274,13 @@
         <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>14500</v>
@@ -1297,13 +1333,13 @@
         <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>14500</v>
@@ -1356,13 +1392,13 @@
         <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>14500</v>
@@ -1415,13 +1451,13 @@
         <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>14500</v>
@@ -1474,13 +1510,13 @@
         <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>14500</v>
@@ -1533,34 +1569,34 @@
         <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>14500</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L16">
         <v>175</v>
@@ -1584,7 +1620,7 @@
         <v>774.93</v>
       </c>
       <c r="S16">
-        <v>12503.27</v>
+        <v>11853.27</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1592,13 +1628,13 @@
         <v>454</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>14500</v>
@@ -1651,34 +1687,34 @@
         <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>14500</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L18">
         <v>175</v>
@@ -1702,7 +1738,7 @@
         <v>774.93</v>
       </c>
       <c r="S18">
-        <v>11853.27</v>
+        <v>12503.27</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1710,13 +1746,13 @@
         <v>454</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>14500</v>
@@ -1769,13 +1805,13 @@
         <v>454</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>14500</v>
@@ -1828,13 +1864,13 @@
         <v>454</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>14500</v>
@@ -1887,13 +1923,13 @@
         <v>454</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>14500</v>
@@ -1946,34 +1982,34 @@
         <v>454</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>14500</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L23">
         <v>175</v>
@@ -1997,124 +2033,6 @@
         <v>774.93</v>
       </c>
       <c r="S23">
-        <v>12503.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>454</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>14500</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24">
-        <v>175</v>
-      </c>
-      <c r="M24">
-        <v>290</v>
-      </c>
-      <c r="N24">
-        <v>526.8</v>
-      </c>
-      <c r="O24">
-        <v>175</v>
-      </c>
-      <c r="P24">
-        <v>290</v>
-      </c>
-      <c r="Q24">
-        <v>1078.2</v>
-      </c>
-      <c r="R24">
-        <v>774.93</v>
-      </c>
-      <c r="S24">
-        <v>12503.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>454</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>14500</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25">
-        <v>175</v>
-      </c>
-      <c r="M25">
-        <v>290</v>
-      </c>
-      <c r="N25">
-        <v>526.8</v>
-      </c>
-      <c r="O25">
-        <v>175</v>
-      </c>
-      <c r="P25">
-        <v>290</v>
-      </c>
-      <c r="Q25">
-        <v>1078.2</v>
-      </c>
-      <c r="R25">
-        <v>774.93</v>
-      </c>
-      <c r="S25">
         <v>12443.27</v>
       </c>
     </row>
@@ -2196,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -2236,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -5508,7 +5426,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -5528,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -5588,7 +5506,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -5628,7 +5546,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
@@ -8815,7 +8733,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -8835,7 +8753,7 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>AN</t>
   </si>
@@ -94,24 +94,27 @@
     <t>[100,2000]</t>
   </si>
   <si>
+    <t>April 23, 2017</t>
+  </si>
+  <si>
+    <t>["food"]</t>
+  </si>
+  <si>
+    <t>[1000]</t>
+  </si>
+  <si>
+    <t>["none"]</t>
+  </si>
+  <si>
+    <t>[""]</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Particulars</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>November 10, 2016</t>
-  </si>
-  <si>
-    <t>bla bla</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>Student B</t>
   </si>
   <si>
@@ -159,12 +162,7 @@
   <si>
     <t>["food","500"]</t>
   </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+  <si/>
   <si>
     <t>Water Company</t>
   </si>
@@ -634,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -766,6 +764,168 @@
         <v>23622.95</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>437.5</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>581.3</v>
+      </c>
+      <c r="O4">
+        <v>437.5</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
+      <c r="Q4">
+        <v>1208.7</v>
+      </c>
+      <c r="R4">
+        <v>25083.23</v>
+      </c>
+      <c r="S4">
+        <v>70897.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>604</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>312.5</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <v>581.3</v>
+      </c>
+      <c r="O5">
+        <v>312.5</v>
+      </c>
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="Q5">
+        <v>1208.7</v>
+      </c>
+      <c r="R5">
+        <v>2083.25</v>
+      </c>
+      <c r="S5">
+        <v>21522.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -773,6 +933,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -796,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -807,19 +1134,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,36 +1154,33 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>30000</v>
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,19 +1188,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,239 +1211,24 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>293</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>296</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>297</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9</v>
-      </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1139,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1179,10 +1288,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -1205,47 +1314,13 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>AN</t>
   </si>
@@ -162,9 +162,7 @@
   <si>
     <t>food</t>
   </si>
-  <si>
-    <t/>
-  </si>
+  <si/>
   <si>
     <t>Water Company</t>
   </si>
@@ -634,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -764,6 +762,50 @@
       </c>
       <c r="S2">
         <v>23622.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1750</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -94,27 +94,24 @@
     <t>[100,2000]</t>
   </si>
   <si>
-    <t>April 23, 2017</t>
-  </si>
-  <si>
-    <t>["food"]</t>
-  </si>
-  <si>
-    <t>[1000]</t>
-  </si>
-  <si>
-    <t>["none"]</t>
-  </si>
-  <si>
-    <t>[""]</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Particulars</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>November 10, 2016</t>
+  </si>
+  <si>
+    <t>bla bla</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>Student B</t>
   </si>
   <si>
@@ -162,7 +159,12 @@
   <si>
     <t>["food","500"]</t>
   </si>
-  <si/>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Water Company</t>
   </si>
@@ -632,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S3"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -808,124 +810,6 @@
         <v>-1750</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>437.5</v>
-      </c>
-      <c r="M4">
-        <v>2000</v>
-      </c>
-      <c r="N4">
-        <v>581.3</v>
-      </c>
-      <c r="O4">
-        <v>437.5</v>
-      </c>
-      <c r="P4">
-        <v>2000</v>
-      </c>
-      <c r="Q4">
-        <v>1208.7</v>
-      </c>
-      <c r="R4">
-        <v>25083.23</v>
-      </c>
-      <c r="S4">
-        <v>70897.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>604</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>312.5</v>
-      </c>
-      <c r="M5">
-        <v>500</v>
-      </c>
-      <c r="N5">
-        <v>581.3</v>
-      </c>
-      <c r="O5">
-        <v>312.5</v>
-      </c>
-      <c r="P5">
-        <v>500</v>
-      </c>
-      <c r="Q5">
-        <v>1208.7</v>
-      </c>
-      <c r="R5">
-        <v>2083.25</v>
-      </c>
-      <c r="S5">
-        <v>21522.95</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -933,173 +817,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>296</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>297</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -1123,10 +840,228 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>296</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1191,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -1228,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1248,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1288,10 +1223,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -1314,13 +1249,47 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1353,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>AN</t>
   </si>
@@ -94,27 +94,24 @@
     <t>[100,2000]</t>
   </si>
   <si>
-    <t>April 23, 2017</t>
-  </si>
-  <si>
-    <t>["food"]</t>
-  </si>
-  <si>
-    <t>[1000]</t>
-  </si>
-  <si>
-    <t>["none"]</t>
-  </si>
-  <si>
-    <t>[""]</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Particulars</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>November 10, 2016</t>
+  </si>
+  <si>
+    <t>bla bla</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>Student B</t>
   </si>
   <si>
@@ -162,7 +159,12 @@
   <si>
     <t>["food","500"]</t>
   </si>
-  <si/>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Water Company</t>
   </si>
@@ -252,6 +254,78 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>dada</t>
+  </si>
+  <si>
+    <t>April 13, 2017</t>
+  </si>
+  <si>
+    <t>adw</t>
+  </si>
+  <si>
+    <t>dw1</t>
+  </si>
+  <si>
+    <t>April 12, 2017</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>March 23, 2017</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>April 15, 2017</t>
+  </si>
+  <si>
+    <t>ril</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>April 22, 2017</t>
+  </si>
+  <si>
+    <t>real na real</t>
+  </si>
+  <si>
+    <t>fab</t>
+  </si>
+  <si>
+    <t>wfkbj</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>April 19, 2017</t>
+  </si>
+  <si>
+    <t>reeltoreal</t>
+  </si>
+  <si>
+    <t>daleee</t>
+  </si>
+  <si>
+    <t>April 20, 2017</t>
+  </si>
+  <si>
+    <t>idily</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ef</t>
   </si>
 </sst>
 </file>
@@ -632,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S3"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -808,124 +882,6 @@
         <v>-1750</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>437.5</v>
-      </c>
-      <c r="M4">
-        <v>2000</v>
-      </c>
-      <c r="N4">
-        <v>581.3</v>
-      </c>
-      <c r="O4">
-        <v>437.5</v>
-      </c>
-      <c r="P4">
-        <v>2000</v>
-      </c>
-      <c r="Q4">
-        <v>1208.7</v>
-      </c>
-      <c r="R4">
-        <v>25083.23</v>
-      </c>
-      <c r="S4">
-        <v>70897.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>604</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>312.5</v>
-      </c>
-      <c r="M5">
-        <v>500</v>
-      </c>
-      <c r="N5">
-        <v>581.3</v>
-      </c>
-      <c r="O5">
-        <v>312.5</v>
-      </c>
-      <c r="P5">
-        <v>500</v>
-      </c>
-      <c r="Q5">
-        <v>1208.7</v>
-      </c>
-      <c r="R5">
-        <v>2083.25</v>
-      </c>
-      <c r="S5">
-        <v>21522.95</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -933,173 +889,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>296</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>297</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -1123,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1134,19 +923,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,33 +943,36 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,19 +980,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,116 +1003,101 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1329,9 +1106,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1353,10 +1130,274 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1416,6 +1457,194 @@
       </c>
       <c r="F5">
         <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
   <si>
     <t>AN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Issued By</t>
   </si>
   <si>
+    <t>Date Issued</t>
+  </si>
+  <si>
     <t>Employee ID</t>
   </si>
   <si>
@@ -70,9 +73,15 @@
     <t>Net</t>
   </si>
   <si>
+    <t>04-2017</t>
+  </si>
+  <si>
     <t>edrichhans</t>
   </si>
   <si>
+    <t>Wed Apr 05 2017 14:06:55 GMT+0800 (PHT)</t>
+  </si>
+  <si>
     <t>Adrian Sing</t>
   </si>
   <si>
@@ -82,31 +91,50 @@
     <t>April 30, 2017</t>
   </si>
   <si>
-    <t>["None"]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>["Food","Place"]</t>
-  </si>
-  <si>
-    <t>[100,2000]</t>
-  </si>
-  <si>
-    <t>April 23, 2017</t>
-  </si>
-  <si>
-    <t>["food"]</t>
-  </si>
-  <si>
-    <t>[1000]</t>
-  </si>
-  <si>
-    <t>["none"]</t>
-  </si>
-  <si>
-    <t>[""]</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Thu Apr 20 2017 16:43:30 GMT+0800 (PHT)</t>
+  </si>
+  <si>
+    <t>January 1, 2017</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>Fri Apr 21 2017 08:07:31 GMT+0800 (PHT)</t>
+  </si>
+  <si/>
+  <si>
+    <t>Tue Apr 25 2017 09:45:52 GMT+0800 (PHT)</t>
+  </si>
+  <si>
+    <t>February 1, 2017</t>
+  </si>
+  <si>
+    <t>February 28, 2017</t>
+  </si>
+  <si>
+    <t>Marami</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
   <si>
     <t>Date</t>
@@ -115,6 +143,9 @@
     <t>Particulars</t>
   </si>
   <si>
+    <t>10-2016</t>
+  </si>
+  <si>
     <t>Student B</t>
   </si>
   <si>
@@ -124,6 +155,9 @@
     <t>Tuition payment</t>
   </si>
   <si>
+    <t>12-2016</t>
+  </si>
+  <si>
     <t>af</t>
   </si>
   <si>
@@ -145,13 +179,16 @@
     <t>aaa</t>
   </si>
   <si>
+    <t>02-2017</t>
+  </si>
+  <si>
     <t>qwdfsgs</t>
   </si>
   <si>
     <t>February 9, 2017</t>
   </si>
   <si>
-    <t>Food</t>
+    <t>03-2017</t>
   </si>
   <si>
     <t>Edrich Chua</t>
@@ -162,7 +199,21 @@
   <si>
     <t>["food","500"]</t>
   </si>
-  <si/>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>April 21, 2017</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>aN-NaN</t>
+  </si>
+  <si>
+    <t>11-2016</t>
+  </si>
   <si>
     <t>Water Company</t>
   </si>
@@ -233,6 +284,15 @@
     <t>100</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>petty</t>
   </si>
   <si>
@@ -252,6 +312,18 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Edrich</t>
+  </si>
+  <si>
+    <t>April 24, 2017</t>
   </si>
 </sst>
 </file>
@@ -632,21 +704,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T9"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="19" width="10" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -704,226 +776,285 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>597</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>3000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>312.5</v>
+      </c>
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>581.3</v>
+      </c>
+      <c r="P3">
+        <v>312.5</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+      <c r="R3">
+        <v>1208.7</v>
+      </c>
+      <c r="S3">
+        <v>2083.25</v>
+      </c>
+      <c r="T3">
+        <v>23622.95</v>
+      </c>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>623</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F5">
+        <v>3000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>109</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <v>231</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>624</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2">
-        <v>312.5</v>
-      </c>
-      <c r="M2">
-        <v>500</v>
-      </c>
-      <c r="N2">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>187.5</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>545</v>
+      </c>
+      <c r="P6">
+        <v>187.5</v>
+      </c>
+      <c r="Q6">
+        <v>300</v>
+      </c>
+      <c r="R6">
+        <v>1135</v>
+      </c>
+      <c r="S6">
+        <v>874.93</v>
+      </c>
+      <c r="T6">
+        <v>14092.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>629</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>437.5</v>
+      </c>
+      <c r="N7">
+        <v>4000.02</v>
+      </c>
+      <c r="O7">
         <v>581.3</v>
       </c>
-      <c r="O2">
-        <v>312.5</v>
-      </c>
-      <c r="P2">
-        <v>500</v>
-      </c>
-      <c r="Q2">
+      <c r="P7">
+        <v>437.5</v>
+      </c>
+      <c r="Q7">
+        <v>4000.02</v>
+      </c>
+      <c r="R7">
         <v>1208.7</v>
       </c>
-      <c r="R2">
-        <v>2083.25</v>
-      </c>
-      <c r="S2">
-        <v>23622.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>602</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>437.5</v>
-      </c>
-      <c r="M4">
-        <v>2000</v>
-      </c>
-      <c r="N4">
-        <v>581.3</v>
-      </c>
-      <c r="O4">
-        <v>437.5</v>
-      </c>
-      <c r="P4">
-        <v>2000</v>
-      </c>
-      <c r="Q4">
-        <v>1208.7</v>
-      </c>
-      <c r="R4">
-        <v>25083.23</v>
-      </c>
-      <c r="S4">
-        <v>70897.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>604</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>312.5</v>
-      </c>
-      <c r="M5">
-        <v>500</v>
-      </c>
-      <c r="N5">
-        <v>581.3</v>
-      </c>
-      <c r="O5">
-        <v>312.5</v>
-      </c>
-      <c r="P5">
-        <v>500</v>
-      </c>
-      <c r="Q5">
-        <v>1208.7</v>
-      </c>
-      <c r="R5">
-        <v>2083.25</v>
-      </c>
-      <c r="S5">
-        <v>21522.95</v>
+      <c r="S7">
+        <v>57750.43</v>
+      </c>
+      <c r="T7">
+        <v>137131.75000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8">
+        <v>178578.27000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>178578.27000000002</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F20"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -953,144 +1084,237 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>30000</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>296</v>
       </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>297</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
         <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>41622</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1120,207 +1344,287 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>265759</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>302</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1339,10 +1643,11 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,72 +1655,190 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
         <v>9</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5">
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
         <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>313</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/report.xlsx
+++ b/uploads/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>AN</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Date Issued</t>
   </si>
   <si>
-    <t>Employee ID</t>
+    <t>eID</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,13 +73,13 @@
     <t>Net</t>
   </si>
   <si>
-    <t>04-2017</t>
+    <t>05-2017</t>
   </si>
   <si>
     <t>edrichhans</t>
   </si>
   <si>
-    <t>Wed Apr 05 2017 14:06:55 GMT+0800 (PHT)</t>
+    <t>May 3, 2017</t>
   </si>
   <si>
     <t>Adrian Sing</t>
@@ -97,30 +97,18 @@
     <t>Food</t>
   </si>
   <si>
+    <t>ello</t>
+  </si>
+  <si>
     <t>Place</t>
   </si>
   <si>
-    <t>Wed Apr 05 2017 20:12:08 GMT+0800 (PHT)</t>
-  </si>
-  <si>
-    <t>05-2017</t>
-  </si>
-  <si>
-    <t>Mon May 01 2017 17:05:22 GMT+0800 (PHT)</t>
-  </si>
-  <si>
     <t>May 1, 2017</t>
   </si>
   <si>
     <t>May 31, 2017</t>
   </si>
   <si>
-    <t>Mon May 01 2017 18:05:59 GMT+0800 (PHT)</t>
-  </si>
-  <si>
-    <t>Mon May 01 2017 18:08:42 GMT+0800 (PHT)</t>
-  </si>
-  <si>
     <t>Subtotal:</t>
   </si>
   <si>
@@ -172,10 +160,6 @@
     <t>food</t>
   </si>
   <si>
-    <t>aN-NaN</t>
-  </si>
-  <si/>
-  <si>
     <t>11-2016</t>
   </si>
   <si>
@@ -188,69 +172,42 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>Companyyyyyy</t>
   </si>
   <si>
     <t>Rental</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>November 11, 2016</t>
   </si>
   <si>
-    <t>23000</t>
-  </si>
-  <si>
     <t>eeeeeee</t>
   </si>
   <si>
     <t>Gov't Payables</t>
   </si>
   <si>
-    <t>1515</t>
-  </si>
-  <si>
     <t>checkvoicer</t>
   </si>
   <si>
-    <t>7777</t>
-  </si>
-  <si>
     <t>checkckckckc</t>
   </si>
   <si>
     <t>November 1, 2016</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>adfasdfasdfasdf</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>November 30, 2016</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>lla</t>
   </si>
   <si>
     <t>December 6, 2016</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -269,28 +226,22 @@
     <t>March 13, 2017</t>
   </si>
   <si>
-    <t>thing,</t>
-  </si>
-  <si>
-    <t>thing2</t>
-  </si>
-  <si>
-    <t>thing3</t>
-  </si>
-  <si>
-    <t>Petty cash</t>
-  </si>
-  <si>
-    <t>Lol</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]-#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <color theme="1"/>
@@ -311,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,13 +270,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,86 +631,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T7"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="20" width="10" customWidth="1"/>
+    <col min="12" max="20" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -762,7 +737,7 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>3000</v>
       </c>
       <c r="G3" t="s">
@@ -774,38 +749,38 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>312.5</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>500</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>581.3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>312.5</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>500</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>1208.7</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>2083.25</v>
       </c>
-      <c r="T3">
-        <v>23622.95</v>
+      <c r="T3" s="1">
+        <v>22622.95</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -814,23 +789,29 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="H4"/>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1000</v>
+      </c>
       <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1">
         <v>2000</v>
       </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -840,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -848,213 +829,74 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3000</v>
       </c>
-      <c r="M5">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>60</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>1750</v>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>603</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>3000</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>24122.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2000</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>604</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2000</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>605</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>3000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2000</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12">
-        <v>175372.95</v>
+      <c r="T7" s="1">
+        <v>24122.95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="16">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1071,22 +913,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1103,32 +929,32 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,32 +962,36 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,29 +1002,33 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,15 +1036,15 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1219,15 +1053,15 @@
         <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1236,15 +1070,15 @@
         <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1253,15 +1087,15 @@
         <v>296</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1270,31 +1104,35 @@
         <v>297</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5">
         <v>2500</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1">
         <v>2522</v>
       </c>
     </row>
@@ -1306,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F19"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1314,311 +1152,293 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
       </c>
       <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
+      <c r="F6" s="1">
+        <v>1515</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7777</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
+      <c r="F10" s="1">
+        <v>123456</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5">
+        <v>265759</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>265759</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -1630,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1638,42 +1458,42 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="6" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1681,35 +1501,44 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1">
         <v>1000</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>69</v>
       </c>
@@ -1717,104 +1546,72 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1">
         <v>200</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1">
         <v>300</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H8" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>1500</v>
+      <c r="H9" s="5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4400</v>
       </c>
     </row>
   </sheetData>
